--- a/AdvanceSteel/AS_Perfis_Dados_Lam_HP.xlsx
+++ b/AdvanceSteel/AS_Perfis_Dados_Lam_HP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\MET_2023\3_Advance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MET_2023\3_Advance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFA1209-68E4-4082-A06A-156C038EBEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5440CFE5-4D40-4F45-BD6F-A6E26286EB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FE564022-E687-49A5-9B86-A42C1E248E80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE564022-E687-49A5-9B86-A42C1E248E80}"/>
   </bookViews>
   <sheets>
     <sheet name="GerdauHP" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="287">
   <si>
     <t>Perfil</t>
   </si>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1395,20 +1395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FD81CE-AB40-451D-AE91-49B900458C65}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
@@ -2290,25 +2290,25 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="10">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="10">
         <v>277</v>
       </c>
-      <c r="G24" s="10">
-        <v>17</v>
+      <c r="G24" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H24" s="11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>115</v>
@@ -2317,10 +2317,10 @@
         <v>50</v>
       </c>
       <c r="L24" s="10">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -2328,25 +2328,25 @@
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="10">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F25" s="10">
         <v>277</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>115</v>
@@ -2355,10 +2355,10 @@
         <v>50</v>
       </c>
       <c r="L25" s="10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
@@ -2366,25 +2366,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F26" s="10">
         <v>277</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H26" s="11">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>115</v>
@@ -2393,10 +2393,10 @@
         <v>50</v>
       </c>
       <c r="L26" s="10">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
@@ -2404,25 +2404,25 @@
         <v>19</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F27" s="10">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H27" s="11">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>115</v>
@@ -2431,10 +2431,10 @@
         <v>50</v>
       </c>
       <c r="L27" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
@@ -2442,25 +2442,25 @@
         <v>19</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="10">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F28" s="10">
         <v>320</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>115</v>
@@ -2469,10 +2469,10 @@
         <v>50</v>
       </c>
       <c r="L28" s="10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
@@ -2480,25 +2480,25 @@
         <v>19</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="10">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F29" s="10">
         <v>320</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H29" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>115</v>
@@ -2507,10 +2507,10 @@
         <v>50</v>
       </c>
       <c r="L29" s="10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -2518,25 +2518,25 @@
         <v>19</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="10">
-        <v>360</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>112</v>
+        <v>363</v>
+      </c>
+      <c r="E30" s="10">
+        <v>13</v>
       </c>
       <c r="F30" s="10">
         <v>320</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H30" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>115</v>
@@ -2545,44 +2545,6 @@
         <v>50</v>
       </c>
       <c r="L30" s="10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="10">
-        <v>363</v>
-      </c>
-      <c r="E31" s="10">
-        <v>13</v>
-      </c>
-      <c r="F31" s="10">
-        <v>320</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="11">
-        <v>257</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="6">
-        <v>50</v>
-      </c>
-      <c r="L31" s="10">
         <v>122</v>
       </c>
     </row>
@@ -2600,16 +2562,16 @@
       <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
-    <col min="9" max="9" width="9.140625" style="13"/>
-    <col min="10" max="11" width="9.140625" style="18"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="13"/>
+    <col min="7" max="7" width="9.109375" style="13"/>
+    <col min="9" max="9" width="9.109375" style="13"/>
+    <col min="10" max="11" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -2647,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2645,7 @@
       </c>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2681,7 @@
       </c>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -2755,7 +2717,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2791,7 +2753,7 @@
       </c>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -2827,7 +2789,7 @@
       </c>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -2863,7 +2825,7 @@
       </c>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
@@ -2899,7 +2861,7 @@
       </c>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
@@ -2935,7 +2897,7 @@
       </c>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2933,7 @@
       </c>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -3007,7 +2969,7 @@
       </c>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
@@ -3043,7 +3005,7 @@
       </c>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -3079,7 +3041,7 @@
       </c>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
@@ -3115,7 +3077,7 @@
       </c>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
@@ -3151,7 +3113,7 @@
       </c>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3149,7 @@
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -3223,7 +3185,7 @@
       </c>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
@@ -3259,7 +3221,7 @@
       </c>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
@@ -3295,7 +3257,7 @@
       </c>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +3293,7 @@
       </c>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -3367,7 +3329,7 @@
       </c>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -3403,7 +3365,7 @@
       </c>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
@@ -3439,7 +3401,7 @@
       </c>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>18</v>
       </c>
@@ -3475,7 +3437,7 @@
       </c>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
@@ -3511,7 +3473,7 @@
       </c>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
@@ -3547,7 +3509,7 @@
       </c>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
@@ -3583,7 +3545,7 @@
       </c>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>18</v>
       </c>
@@ -3619,7 +3581,7 @@
       </c>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>18</v>
       </c>
@@ -3655,7 +3617,7 @@
       </c>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
@@ -3691,7 +3653,7 @@
       </c>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3689,7 @@
       </c>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>18</v>
       </c>
@@ -3763,7 +3725,7 @@
       </c>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>18</v>
       </c>
@@ -3799,7 +3761,7 @@
       </c>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>18</v>
       </c>
@@ -3835,7 +3797,7 @@
       </c>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>18</v>
       </c>
@@ -3871,7 +3833,7 @@
       </c>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>18</v>
       </c>
@@ -3907,7 +3869,7 @@
       </c>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>18</v>
       </c>
@@ -3943,7 +3905,7 @@
       </c>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>18</v>
       </c>
@@ -3979,7 +3941,7 @@
       </c>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>18</v>
       </c>
@@ -4015,7 +3977,7 @@
       </c>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>18</v>
       </c>
@@ -4051,7 +4013,7 @@
       </c>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>18</v>
       </c>
@@ -4087,7 +4049,7 @@
       </c>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>18</v>
       </c>
@@ -4123,7 +4085,7 @@
       </c>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>18</v>
       </c>
@@ -4159,7 +4121,7 @@
       </c>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4157,7 @@
       </c>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>18</v>
       </c>
@@ -4231,7 +4193,7 @@
       </c>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>18</v>
       </c>
@@ -4267,7 +4229,7 @@
       </c>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>18</v>
       </c>
@@ -4303,7 +4265,7 @@
       </c>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>18</v>
       </c>
@@ -4339,7 +4301,7 @@
       </c>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>18</v>
       </c>
@@ -4375,7 +4337,7 @@
       </c>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>18</v>
       </c>
@@ -4411,7 +4373,7 @@
       </c>
       <c r="L50" s="14"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>18</v>
       </c>
@@ -4447,7 +4409,7 @@
       </c>
       <c r="L51" s="14"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>18</v>
       </c>
@@ -4483,7 +4445,7 @@
       </c>
       <c r="L52" s="14"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>18</v>
       </c>
@@ -4519,7 +4481,7 @@
       </c>
       <c r="L53" s="14"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>18</v>
       </c>
@@ -4555,7 +4517,7 @@
       </c>
       <c r="L54" s="14"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>18</v>
       </c>
@@ -4591,7 +4553,7 @@
       </c>
       <c r="L55" s="14"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>18</v>
       </c>
@@ -4627,7 +4589,7 @@
       </c>
       <c r="L56" s="14"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>18</v>
       </c>
@@ -4663,7 +4625,7 @@
       </c>
       <c r="L57" s="14"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4661,7 @@
       </c>
       <c r="L58" s="14"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>18</v>
       </c>
@@ -4735,7 +4697,7 @@
       </c>
       <c r="L59" s="14"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>18</v>
       </c>
@@ -4771,7 +4733,7 @@
       </c>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>18</v>
       </c>
@@ -4807,7 +4769,7 @@
       </c>
       <c r="L61" s="14"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>18</v>
       </c>
@@ -4843,7 +4805,7 @@
       </c>
       <c r="L62" s="14"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>18</v>
       </c>
@@ -4879,7 +4841,7 @@
       </c>
       <c r="L63" s="14"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>18</v>
       </c>
@@ -4915,7 +4877,7 @@
       </c>
       <c r="L64" s="14"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>18</v>
       </c>
@@ -4951,7 +4913,7 @@
       </c>
       <c r="L65" s="14"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>18</v>
       </c>
@@ -4987,7 +4949,7 @@
       </c>
       <c r="L66" s="14"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>18</v>
       </c>
@@ -5023,7 +4985,7 @@
       </c>
       <c r="L67" s="14"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>18</v>
       </c>
@@ -5059,7 +5021,7 @@
       </c>
       <c r="L68" s="14"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>18</v>
       </c>
@@ -5095,7 +5057,7 @@
       </c>
       <c r="L69" s="14"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>18</v>
       </c>
@@ -5131,7 +5093,7 @@
       </c>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>18</v>
       </c>
@@ -5167,7 +5129,7 @@
       </c>
       <c r="L71" s="14"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>18</v>
       </c>
@@ -5203,7 +5165,7 @@
       </c>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>18</v>
       </c>
@@ -5239,7 +5201,7 @@
       </c>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>18</v>
       </c>
@@ -5275,7 +5237,7 @@
       </c>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>18</v>
       </c>
@@ -5311,7 +5273,7 @@
       </c>
       <c r="L75" s="14"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>18</v>
       </c>
@@ -5347,7 +5309,7 @@
       </c>
       <c r="L76" s="14"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>18</v>
       </c>
@@ -5383,7 +5345,7 @@
       </c>
       <c r="L77" s="14"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>18</v>
       </c>
@@ -5419,7 +5381,7 @@
       </c>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>18</v>
       </c>
@@ -5455,7 +5417,7 @@
       </c>
       <c r="L79" s="14"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>18</v>
       </c>
@@ -5491,7 +5453,7 @@
       </c>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>18</v>
       </c>
@@ -5527,7 +5489,7 @@
       </c>
       <c r="L81" s="14"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>18</v>
       </c>
@@ -5563,7 +5525,7 @@
       </c>
       <c r="L82" s="14"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>18</v>
       </c>
@@ -5599,7 +5561,7 @@
       </c>
       <c r="L83" s="14"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>18</v>
       </c>
@@ -5635,7 +5597,7 @@
       </c>
       <c r="L84" s="14"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>18</v>
       </c>
@@ -5671,7 +5633,7 @@
       </c>
       <c r="L85" s="14"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>18</v>
       </c>
@@ -5707,7 +5669,7 @@
       </c>
       <c r="L86" s="14"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>18</v>
       </c>
@@ -5743,7 +5705,7 @@
       </c>
       <c r="L87" s="14"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>18</v>
       </c>
@@ -5779,7 +5741,7 @@
       </c>
       <c r="L88" s="14"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>18</v>
       </c>
@@ -5815,7 +5777,7 @@
       </c>
       <c r="L89" s="14"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>18</v>
       </c>
@@ -5851,7 +5813,7 @@
       </c>
       <c r="L90" s="14"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>18</v>
       </c>
@@ -5887,7 +5849,7 @@
       </c>
       <c r="L91" s="14"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>18</v>
       </c>
@@ -5923,7 +5885,7 @@
       </c>
       <c r="L92" s="14"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>18</v>
       </c>
@@ -5959,7 +5921,7 @@
       </c>
       <c r="L93" s="14"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>18</v>
       </c>
@@ -5995,7 +5957,7 @@
       </c>
       <c r="L94" s="14"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>18</v>
       </c>
@@ -6031,7 +5993,7 @@
       </c>
       <c r="L95" s="14"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>18</v>
       </c>
@@ -6067,7 +6029,7 @@
       </c>
       <c r="L96" s="14"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>18</v>
       </c>
@@ -6103,7 +6065,7 @@
       </c>
       <c r="L97" s="14"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>18</v>
       </c>
@@ -6139,7 +6101,7 @@
       </c>
       <c r="L98" s="14"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>18</v>
       </c>
@@ -6175,7 +6137,7 @@
       </c>
       <c r="L99" s="14"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>18</v>
       </c>
@@ -6211,7 +6173,7 @@
       </c>
       <c r="L100" s="14"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>18</v>
       </c>
